--- a/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
+++ b/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData Processed by Jeff\elec\NGEpUO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\elec\NGEpUO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA875D7-5F2F-4DFF-ABCE-2DA3193D3E0D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15600" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="NGEpUO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,18 +72,12 @@
     <t>Page 16, Table 8, Row "CO2"</t>
   </si>
   <si>
-    <t>http://www.nrel.gov/docs/fy00osti/27715.pdf</t>
-  </si>
-  <si>
     <t>Life Cycle Assessment of a Natural Gas Combined-Cycle Power Generation System</t>
   </si>
   <si>
     <t>Supporting information for "Life Cycle Greenhouse Gas Emissions of Nuclear Electricity Generation: Systematic Review and Harmonization", Journal of Industrial Ecology</t>
   </si>
   <si>
-    <t>http://onlinelibrary.wiley.com/store/10.1111/j.1530-9290.2012.00472.x/asset/supinfo/JIEC_472_sm_suppmat.pdf?v=1&amp;s=28baa0850724a7bf0b914a196e475d5da328733f</t>
-  </si>
-  <si>
     <t>"System Total" times the sum of colums 5, 6, and 7.</t>
   </si>
   <si>
@@ -169,9 +171,6 @@
     <t>Geothermal Results - Life Cycle Assessment Review</t>
   </si>
   <si>
-    <t>http://www.nrel.gov/analysis/sustain_lca_geo.html</t>
-  </si>
-  <si>
     <t>web page text, paragraph 2</t>
   </si>
   <si>
@@ -194,12 +193,21 @@
   </si>
   <si>
     <t>coal to gas</t>
+  </si>
+  <si>
+    <t>https://pangea.stanford.edu/ERE/db/GeoConf/papers/SGW/2017/Fridriksson.pdf</t>
+  </si>
+  <si>
+    <t>http://library.umac.mo/ebooks/b28020261.pdf</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/pdf/10.1111/j.1530-9290.2012.00472.x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,6 +402,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -429,6 +454,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,32 +646,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="50.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="74.7265625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="50.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -637,9 +679,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>26</v>
@@ -651,9 +693,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
         <f>B4/1000</f>
@@ -666,7 +708,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -675,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -684,24 +726,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -709,9 +751,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>68.599999999999994</v>
@@ -723,9 +765,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2">
         <f>B11/1000</f>
@@ -738,39 +780,39 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -780,9 +822,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>14.35</v>
@@ -791,12 +833,12 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
         <f>B18/1000</f>
@@ -809,36 +851,36 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -848,9 +890,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>6.6</v>
@@ -862,9 +904,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
         <f>B25/1000</f>
@@ -877,38 +919,38 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -916,9 +958,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2">
         <v>11</v>
@@ -927,12 +969,12 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <f>B32/1000</f>
@@ -945,38 +987,38 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -984,9 +1026,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2">
         <v>45</v>
@@ -995,12 +1037,12 @@
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B40" s="2">
         <f>B39/1000</f>
@@ -1013,38 +1055,38 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1052,28 +1094,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="2">
         <f>B39</f>
         <v>45</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B47" s="2">
         <f>B40</f>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
@@ -1083,9 +1125,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" s="2">
         <v>46</v>
@@ -1097,9 +1139,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B54" s="2">
         <f>B53/1000</f>
@@ -1112,46 +1154,46 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B60" s="2">
         <v>50</v>
@@ -1163,9 +1205,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B61" s="2">
         <f>B60/1000</f>
@@ -1175,148 +1217,148 @@
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B67" s="2">
         <f>B4</f>
         <v>26</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B68" s="2">
         <f>B5</f>
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B74" s="2">
         <f>B11</f>
         <v>68.599999999999994</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" s="2">
         <f>B12</f>
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B80" s="2">
         <f>B11</f>
         <v>68.599999999999994</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B81" s="2">
         <f>B12</f>
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B86" s="2">
         <f>B32</f>
         <v>11</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B87" s="2">
         <f>B33</f>
@@ -1325,61 +1367,59 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1"/>
-    <hyperlink ref="D35" r:id="rId2"/>
-    <hyperlink ref="D14" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D28" r:id="rId5"/>
-    <hyperlink ref="D42" r:id="rId6"/>
-    <hyperlink ref="D56" r:id="rId7"/>
-    <hyperlink ref="D63" r:id="rId8"/>
+    <hyperlink ref="D35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D56" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D21" r:id="rId6" xr:uid="{F3027ADB-C089-4E66-8A77-384F504AAF07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <f>About!B5</f>
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <f>About!B12</f>
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1428,7 @@
         <v>1.435E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1397,34 +1437,34 @@
         <v>6.6E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <f>About!B33</f>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <f>About!B40</f>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <f>About!B47</f>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1433,45 +1473,45 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="10">
         <f>About!B61</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <f>About!B68</f>
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <f>About!B75</f>
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <f>About!B81</f>
         <v>6.8599999999999994E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <f>About!B87</f>
